--- a/public/data/sampleMark.xlsx
+++ b/public/data/sampleMark.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coe13\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J.A.R.V.I.S\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B72042-6AC0-413F-B0ED-35DFFFF178C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8IjITvnaz1NrXqqFvU4GUMLQVaW753ekNiMdo7MFQNmdD3Za4g2CmX8jIg3AWEEketaOg0I9wm+XDJBTWRG0Fg==" workbookSaltValue="69LgX/SAbWi+akdsiuY3vw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LMH" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="93">
   <si>
     <t>Register Number</t>
   </si>
@@ -295,12 +296,21 @@
   </si>
   <si>
     <t>7. Delete the unnecessary records</t>
+  </si>
+  <si>
+    <t>23UCA061</t>
+  </si>
+  <si>
+    <t>23UCA062</t>
+  </si>
+  <si>
+    <t>23UCA063</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -599,9 +609,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -610,6 +617,21 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,28 +912,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q382"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D271" sqref="D271:F271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="26" customWidth="1"/>
-    <col min="8" max="17" width="9.140625" style="20"/>
-    <col min="18" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="13.54296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="5.54296875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="26" customWidth="1"/>
+    <col min="8" max="17" width="9.1796875" style="20"/>
+    <col min="18" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -934,7 +956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -956,11 +978,11 @@
         <v>75</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
@@ -968,7 +990,7 @@
       <c r="P2" s="34"/>
       <c r="Q2" s="34"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="21" t="s">
         <v>4</v>
@@ -988,7 +1010,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="21" t="s">
         <v>14</v>
@@ -1007,7 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="21" t="s">
         <v>15</v>
@@ -1026,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="22" t="s">
         <v>5</v>
@@ -1049,7 +1071,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="23" t="s">
         <v>6</v>
@@ -1069,11 +1091,11 @@
         <v>75</v>
       </c>
       <c r="H7" s="28"/>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -1081,7 +1103,7 @@
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
     </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1135,7 @@
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="21" t="s">
         <v>4</v>
@@ -1138,7 +1160,7 @@
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="21" t="s">
         <v>14</v>
@@ -1162,7 +1184,7 @@
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="21" t="s">
         <v>15</v>
@@ -1181,7 +1203,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="22" t="s">
         <v>5</v>
@@ -1209,7 +1231,7 @@
       <c r="M12"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="23" t="s">
         <v>6</v>
@@ -1239,7 +1261,7 @@
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
     </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1295,7 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="21" t="s">
         <v>4</v>
@@ -1298,7 +1320,7 @@
       <c r="M15"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="21" t="s">
         <v>14</v>
@@ -1325,7 +1347,7 @@
       <c r="M16"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="21" t="s">
         <v>15</v>
@@ -1344,7 +1366,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="22" t="s">
         <v>5</v>
@@ -1370,7 +1392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="23" t="s">
         <v>6</v>
@@ -1402,7 +1424,7 @@
       <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
     </row>
-    <row r="20" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +1436,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
       <c r="G20" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G20:G25" si="4">SUM(D20:F20)</f>
         <v>0</v>
       </c>
       <c r="H20" s="29"/>
@@ -1430,7 +1452,7 @@
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="21" t="s">
         <v>4</v>
@@ -1440,7 +1462,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I21" s="31" t="s">
@@ -1453,58 +1475,73 @@
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="43">
+        <f>C22*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22" s="32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="43">
+        <f>C23*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I23" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="25">
-        <f t="shared" si="2"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43">
+        <f>SUM(D20:D23)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" ref="E24:F24" si="5">SUM(E20:E23)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="44">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="23" t="s">
         <v>6</v>
@@ -1514,7 +1551,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
       <c r="G25" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H25" s="28"/>
@@ -1530,7 +1567,7 @@
       <c r="P25" s="28"/>
       <c r="Q25" s="28"/>
     </row>
-    <row r="26" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>10</v>
       </c>
@@ -1542,7 +1579,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
       <c r="G26" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G26:G89" si="6">SUM(D26:F26)</f>
         <v>0</v>
       </c>
       <c r="H26" s="29"/>
@@ -1555,7 +1592,7 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="21" t="s">
         <v>4</v>
@@ -1565,7 +1602,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
       <c r="G27" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J27" s="29"/>
@@ -1575,17 +1612,20 @@
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="43">
+        <f t="shared" ref="D28:D29" si="7">C28*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
       <c r="G28" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J28" s="29"/>
@@ -1595,17 +1635,20 @@
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I29" s="35" t="s">
@@ -1618,17 +1661,26 @@
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="25">
-        <f t="shared" si="2"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43">
+        <f t="shared" ref="D30:F30" si="8">SUM(D26:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I30" s="29"/>
@@ -1639,7 +1691,7 @@
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
     </row>
-    <row r="31" spans="1:17" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="23" t="s">
         <v>6</v>
@@ -1649,11 +1701,11 @@
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H31" s="28"/>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="37" t="s">
         <v>85</v>
       </c>
       <c r="J31" s="29"/>
@@ -1665,7 +1717,7 @@
       <c r="P31" s="28"/>
       <c r="Q31" s="28"/>
     </row>
-    <row r="32" spans="1:17" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>16</v>
       </c>
@@ -1677,11 +1729,11 @@
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
       <c r="G32" s="24">
-        <f t="shared" ref="G32:G42" si="4">SUM(D32:F32)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="38" t="s">
         <v>86</v>
       </c>
       <c r="J32" s="29"/>
@@ -1693,7 +1745,7 @@
       <c r="P32" s="29"/>
       <c r="Q32" s="29"/>
     </row>
-    <row r="33" spans="1:17" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="7" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="21" t="s">
         <v>4</v>
@@ -1703,11 +1755,11 @@
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
       <c r="G33" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="39" t="s">
         <v>87</v>
       </c>
       <c r="J33" s="29"/>
@@ -1719,17 +1771,20 @@
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
     </row>
-    <row r="34" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="43">
+        <f t="shared" ref="D34:D35" si="9">C34*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H34" s="29"/>
@@ -1743,17 +1798,20 @@
       <c r="P34" s="29"/>
       <c r="Q34" s="29"/>
     </row>
-    <row r="35" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="10"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
       <c r="G35" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H35" s="29"/>
@@ -1767,17 +1825,26 @@
       <c r="P35" s="29"/>
       <c r="Q35" s="29"/>
     </row>
-    <row r="36" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="25">
-        <f t="shared" si="4"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43">
+        <f t="shared" ref="D36:F36" si="10">SUM(D32:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H36" s="29"/>
@@ -1791,19 +1858,17 @@
       <c r="P36" s="29"/>
       <c r="Q36" s="29"/>
     </row>
-    <row r="37" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="10"/>
+    <row r="37" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="13"/>
+      <c r="B37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="12"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="24">
-        <f t="shared" si="4"/>
+      <c r="G37" s="25">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H37" s="29"/>
@@ -1817,17 +1882,19 @@
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
     </row>
-    <row r="38" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+    <row r="38" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="B38" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
       <c r="G38" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H38" s="29"/>
@@ -1841,17 +1908,17 @@
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
     </row>
-    <row r="39" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
       <c r="G39" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H39" s="29"/>
@@ -1865,17 +1932,20 @@
       <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
     </row>
-    <row r="40" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="43">
+        <f t="shared" ref="D40:D41" si="11">C40*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="3"/>
       <c r="G40" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H40" s="29"/>
@@ -1889,17 +1959,20 @@
       <c r="P40" s="29"/>
       <c r="Q40" s="29"/>
     </row>
-    <row r="41" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="25">
-        <f t="shared" si="4"/>
+    <row r="41" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="9"/>
+      <c r="B41" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="43">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H41" s="29"/>
@@ -1913,17 +1986,26 @@
       <c r="P41" s="29"/>
       <c r="Q41" s="29"/>
     </row>
-    <row r="42" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="25">
-        <f t="shared" si="4"/>
+    <row r="42" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11"/>
+      <c r="B42" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43">
+        <f t="shared" ref="D42:F42" si="12">SUM(D38:D41)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H42" s="29"/>
@@ -1937,19 +2019,17 @@
       <c r="P42" s="29"/>
       <c r="Q42" s="29"/>
     </row>
-    <row r="43" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="10"/>
+    <row r="43" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="13"/>
+      <c r="B43" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="12"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="24">
-        <f t="shared" ref="G43:G106" si="5">SUM(D43:F43)</f>
+      <c r="G43" s="25">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H43" s="29"/>
@@ -1963,17 +2043,19 @@
       <c r="P43" s="29"/>
       <c r="Q43" s="29"/>
     </row>
-    <row r="44" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+    <row r="44" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="B44" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
       <c r="G44" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H44" s="29"/>
@@ -1987,17 +2069,17 @@
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
     </row>
-    <row r="45" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
       <c r="G45" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H45" s="29"/>
@@ -2011,17 +2093,20 @@
       <c r="P45" s="29"/>
       <c r="Q45" s="29"/>
     </row>
-    <row r="46" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="43">
+        <f t="shared" ref="D46:D47" si="13">C46*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
       <c r="G46" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H46" s="29"/>
@@ -2035,17 +2120,20 @@
       <c r="P46" s="29"/>
       <c r="Q46" s="29"/>
     </row>
-    <row r="47" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="25">
-        <f t="shared" si="5"/>
+    <row r="47" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="9"/>
+      <c r="B47" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="43">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H47" s="29"/>
@@ -2059,19 +2147,26 @@
       <c r="P47" s="29"/>
       <c r="Q47" s="29"/>
     </row>
-    <row r="48" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="24">
-        <f t="shared" si="5"/>
+    <row r="48" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11"/>
+      <c r="B48" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43">
+        <f t="shared" ref="D48:F48" si="14">SUM(D44:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H48" s="29"/>
@@ -2085,17 +2180,17 @@
       <c r="P48" s="29"/>
       <c r="Q48" s="29"/>
     </row>
-    <row r="49" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="10"/>
+    <row r="49" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="13"/>
+      <c r="B49" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="12"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="24">
-        <f t="shared" si="5"/>
+      <c r="G49" s="25">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H49" s="29"/>
@@ -2109,17 +2204,19 @@
       <c r="P49" s="29"/>
       <c r="Q49" s="29"/>
     </row>
-    <row r="50" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+    <row r="50" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="B50" s="21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="3"/>
       <c r="G50" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H50" s="29"/>
@@ -2133,17 +2230,17 @@
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
     </row>
-    <row r="51" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
       <c r="G51" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H51" s="29"/>
@@ -2157,17 +2254,20 @@
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
     </row>
-    <row r="52" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="25">
-        <f t="shared" si="5"/>
+    <row r="52" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="43">
+        <f t="shared" ref="D52:D53" si="15">C52*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H52" s="29"/>
@@ -2181,17 +2281,20 @@
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
     </row>
-    <row r="53" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="1"/>
+    <row r="53" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="9"/>
+      <c r="B53" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="25">
-        <f t="shared" si="5"/>
+      <c r="G53" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H53" s="29"/>
@@ -2205,19 +2308,26 @@
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
     </row>
-    <row r="54" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="24">
-        <f t="shared" si="5"/>
+    <row r="54" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="11"/>
+      <c r="B54" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43">
+        <f t="shared" ref="D54:F54" si="16">SUM(D50:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H54" s="29"/>
@@ -2231,17 +2341,17 @@
       <c r="P54" s="29"/>
       <c r="Q54" s="29"/>
     </row>
-    <row r="55" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="10"/>
+    <row r="55" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="13"/>
+      <c r="B55" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="12"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="24">
-        <f t="shared" si="5"/>
+      <c r="G55" s="25">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H55" s="29"/>
@@ -2255,17 +2365,19 @@
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
     </row>
-    <row r="56" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
+    <row r="56" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="B56" s="21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
       <c r="G56" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H56" s="29"/>
@@ -2279,17 +2391,17 @@
       <c r="P56" s="29"/>
       <c r="Q56" s="29"/>
     </row>
-    <row r="57" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
       <c r="G57" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H57" s="29"/>
@@ -2303,17 +2415,20 @@
       <c r="P57" s="29"/>
       <c r="Q57" s="29"/>
     </row>
-    <row r="58" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="25">
-        <f t="shared" si="5"/>
+    <row r="58" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="9"/>
+      <c r="B58" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="43">
+        <f t="shared" ref="D58:D59" si="17">C58*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H58" s="29"/>
@@ -2327,19 +2442,20 @@
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
     </row>
-    <row r="59" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>21</v>
-      </c>
+    <row r="59" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="9"/>
       <c r="B59" s="21" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C59" s="10"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="43">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="3"/>
       <c r="G59" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H59" s="29"/>
@@ -2353,17 +2469,26 @@
       <c r="P59" s="29"/>
       <c r="Q59" s="29"/>
     </row>
-    <row r="60" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="24">
-        <f t="shared" si="5"/>
+    <row r="60" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="11"/>
+      <c r="B60" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="42"/>
+      <c r="D60" s="43">
+        <f t="shared" ref="D60:F60" si="18">SUM(D56:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="43">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="43">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H60" s="29"/>
@@ -2377,17 +2502,17 @@
       <c r="P60" s="29"/>
       <c r="Q60" s="29"/>
     </row>
-    <row r="61" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="10"/>
+    <row r="61" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="13"/>
+      <c r="B61" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="12"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="24">
-        <f t="shared" si="5"/>
+      <c r="G61" s="25">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H61" s="29"/>
@@ -2401,17 +2526,19 @@
       <c r="P61" s="29"/>
       <c r="Q61" s="29"/>
     </row>
-    <row r="62" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+    <row r="62" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="B62" s="21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="3"/>
       <c r="G62" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H62" s="29"/>
@@ -2425,17 +2552,17 @@
       <c r="P62" s="29"/>
       <c r="Q62" s="29"/>
     </row>
-    <row r="63" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="12"/>
+    <row r="63" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="9"/>
+      <c r="B63" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="10"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="25">
-        <f t="shared" si="5"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H63" s="29"/>
@@ -2449,17 +2576,20 @@
       <c r="P63" s="29"/>
       <c r="Q63" s="29"/>
     </row>
-    <row r="64" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="1"/>
+    <row r="64" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="9"/>
+      <c r="B64" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="43">
+        <f t="shared" ref="D64:D65" si="19">C64*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="25">
-        <f t="shared" si="5"/>
+      <c r="G64" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H64" s="29"/>
@@ -2473,19 +2603,20 @@
       <c r="P64" s="29"/>
       <c r="Q64" s="29"/>
     </row>
-    <row r="65" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>22</v>
-      </c>
+    <row r="65" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="9"/>
       <c r="B65" s="21" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C65" s="10"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="43">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="3"/>
       <c r="G65" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H65" s="29"/>
@@ -2499,17 +2630,26 @@
       <c r="P65" s="29"/>
       <c r="Q65" s="29"/>
     </row>
-    <row r="66" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="24">
-        <f t="shared" si="5"/>
+    <row r="66" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="11"/>
+      <c r="B66" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="42"/>
+      <c r="D66" s="43">
+        <f t="shared" ref="D66:F66" si="20">SUM(D62:D65)</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="43">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H66" s="29"/>
@@ -2523,17 +2663,17 @@
       <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
     </row>
-    <row r="67" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="10"/>
+    <row r="67" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="13"/>
+      <c r="B67" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="12"/>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="24">
-        <f t="shared" si="5"/>
+      <c r="G67" s="25">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H67" s="29"/>
@@ -2547,17 +2687,19 @@
       <c r="P67" s="29"/>
       <c r="Q67" s="29"/>
     </row>
-    <row r="68" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+    <row r="68" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="B68" s="21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="3"/>
       <c r="G68" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H68" s="29"/>
@@ -2571,17 +2713,17 @@
       <c r="P68" s="29"/>
       <c r="Q68" s="29"/>
     </row>
-    <row r="69" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="12"/>
+    <row r="69" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="9"/>
+      <c r="B69" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="10"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="25">
-        <f t="shared" si="5"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H69" s="29"/>
@@ -2595,19 +2737,20 @@
       <c r="P69" s="29"/>
       <c r="Q69" s="29"/>
     </row>
-    <row r="70" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>23</v>
-      </c>
+    <row r="70" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9"/>
       <c r="B70" s="21" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C70" s="10"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="43">
+        <f t="shared" ref="D70:D71" si="21">C70*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="3"/>
       <c r="G70" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H70" s="29"/>
@@ -2621,17 +2764,20 @@
       <c r="P70" s="29"/>
       <c r="Q70" s="29"/>
     </row>
-    <row r="71" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="21" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C71" s="10"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="43">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
       <c r="G71" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H71" s="29"/>
@@ -2645,17 +2791,26 @@
       <c r="P71" s="29"/>
       <c r="Q71" s="29"/>
     </row>
-    <row r="72" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="24">
-        <f t="shared" si="5"/>
+    <row r="72" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="11"/>
+      <c r="B72" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="42"/>
+      <c r="D72" s="43">
+        <f t="shared" ref="D72:F72" si="22">SUM(D68:D71)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="43">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="43">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H72" s="29"/>
@@ -2669,17 +2824,17 @@
       <c r="P72" s="29"/>
       <c r="Q72" s="29"/>
     </row>
-    <row r="73" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="10"/>
+    <row r="73" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="13"/>
+      <c r="B73" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="12"/>
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="24">
-        <f t="shared" si="5"/>
+      <c r="G73" s="25">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H73" s="29"/>
@@ -2693,17 +2848,19 @@
       <c r="P73" s="29"/>
       <c r="Q73" s="29"/>
     </row>
-    <row r="74" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="12"/>
+    <row r="74" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="10"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="25">
-        <f t="shared" si="5"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H74" s="29"/>
@@ -2717,17 +2874,17 @@
       <c r="P74" s="29"/>
       <c r="Q74" s="29"/>
     </row>
-    <row r="75" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="12"/>
+    <row r="75" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="9"/>
+      <c r="B75" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="10"/>
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="25">
-        <f t="shared" si="5"/>
+      <c r="G75" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H75" s="29"/>
@@ -2741,19 +2898,20 @@
       <c r="P75" s="29"/>
       <c r="Q75" s="29"/>
     </row>
-    <row r="76" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>24</v>
-      </c>
+    <row r="76" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="9"/>
       <c r="B76" s="21" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C76" s="10"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="43">
+        <f t="shared" ref="D76:D77" si="23">C76*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="3"/>
       <c r="G76" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H76" s="29"/>
@@ -2767,17 +2925,20 @@
       <c r="P76" s="29"/>
       <c r="Q76" s="29"/>
     </row>
-    <row r="77" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9"/>
       <c r="B77" s="21" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C77" s="10"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="43">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="3"/>
       <c r="G77" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H77" s="29"/>
@@ -2791,17 +2952,26 @@
       <c r="P77" s="29"/>
       <c r="Q77" s="29"/>
     </row>
-    <row r="78" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="24">
-        <f t="shared" si="5"/>
+    <row r="78" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="11"/>
+      <c r="B78" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="42"/>
+      <c r="D78" s="43">
+        <f t="shared" ref="D78:F78" si="24">SUM(D74:D77)</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="43">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="43">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H78" s="29"/>
@@ -2815,17 +2985,17 @@
       <c r="P78" s="29"/>
       <c r="Q78" s="29"/>
     </row>
-    <row r="79" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="10"/>
+    <row r="79" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="13"/>
+      <c r="B79" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="12"/>
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="24">
-        <f t="shared" si="5"/>
+      <c r="G79" s="25">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H79" s="29"/>
@@ -2839,17 +3009,19 @@
       <c r="P79" s="29"/>
       <c r="Q79" s="29"/>
     </row>
-    <row r="80" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="12"/>
+    <row r="80" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="10"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="25">
-        <f t="shared" si="5"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H80" s="29"/>
@@ -2863,19 +3035,17 @@
       <c r="P80" s="29"/>
       <c r="Q80" s="29"/>
     </row>
-    <row r="81" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>25</v>
-      </c>
+    <row r="81" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="9"/>
       <c r="B81" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
       <c r="F81" s="3"/>
       <c r="G81" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H81" s="29"/>
@@ -2889,17 +3059,20 @@
       <c r="P81" s="29"/>
       <c r="Q81" s="29"/>
     </row>
-    <row r="82" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C82" s="10"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="43">
+        <f t="shared" ref="D82:D83" si="25">C82*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="3"/>
       <c r="G82" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H82" s="29"/>
@@ -2913,17 +3086,20 @@
       <c r="P82" s="29"/>
       <c r="Q82" s="29"/>
     </row>
-    <row r="83" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9"/>
       <c r="B83" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C83" s="10"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="43">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="3"/>
       <c r="G83" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H83" s="29"/>
@@ -2937,17 +3113,26 @@
       <c r="P83" s="29"/>
       <c r="Q83" s="29"/>
     </row>
-    <row r="84" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="24">
-        <f t="shared" si="5"/>
+    <row r="84" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="11"/>
+      <c r="B84" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="42"/>
+      <c r="D84" s="43">
+        <f t="shared" ref="D84:F84" si="26">SUM(D80:D83)</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="43">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="44">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H84" s="29"/>
@@ -2961,17 +3146,17 @@
       <c r="P84" s="29"/>
       <c r="Q84" s="29"/>
     </row>
-    <row r="85" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="22" t="s">
-        <v>5</v>
+    <row r="85" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="13"/>
+      <c r="B85" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="3"/>
       <c r="G85" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H85" s="29"/>
@@ -2985,17 +3170,19 @@
       <c r="P85" s="29"/>
       <c r="Q85" s="29"/>
     </row>
-    <row r="86" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="12"/>
+    <row r="86" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="10"/>
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="25">
-        <f t="shared" si="5"/>
+      <c r="G86" s="24">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H86" s="29"/>
@@ -3009,19 +3196,17 @@
       <c r="P86" s="29"/>
       <c r="Q86" s="29"/>
     </row>
-    <row r="87" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>37</v>
-      </c>
+    <row r="87" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="9"/>
       <c r="B87" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
       <c r="F87" s="3"/>
       <c r="G87" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H87" s="29"/>
@@ -3035,17 +3220,20 @@
       <c r="P87" s="29"/>
       <c r="Q87" s="29"/>
     </row>
-    <row r="88" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C88" s="10"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="43">
+        <f t="shared" ref="D88:D89" si="27">C88*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3"/>
       <c r="G88" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H88" s="29"/>
@@ -3059,17 +3247,20 @@
       <c r="P88" s="29"/>
       <c r="Q88" s="29"/>
     </row>
-    <row r="89" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9"/>
       <c r="B89" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C89" s="10"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="43">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3"/>
       <c r="G89" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H89" s="29"/>
@@ -3083,17 +3274,26 @@
       <c r="P89" s="29"/>
       <c r="Q89" s="29"/>
     </row>
-    <row r="90" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="24">
-        <f t="shared" si="5"/>
+    <row r="90" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="11"/>
+      <c r="B90" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="42"/>
+      <c r="D90" s="43">
+        <f t="shared" ref="D90:F90" si="28">SUM(D86:D89)</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="43">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="43">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="44">
+        <f t="shared" ref="G90:G153" si="29">SUM(D90:F90)</f>
         <v>0</v>
       </c>
       <c r="H90" s="29"/>
@@ -3107,17 +3307,17 @@
       <c r="P90" s="29"/>
       <c r="Q90" s="29"/>
     </row>
-    <row r="91" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="22" t="s">
-        <v>5</v>
+    <row r="91" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="13"/>
+      <c r="B91" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="3"/>
       <c r="G91" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H91" s="29"/>
@@ -3131,9 +3331,9 @@
       <c r="P91" s="29"/>
       <c r="Q91" s="29"/>
     </row>
-    <row r="92" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>3</v>
@@ -3143,7 +3343,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="3"/>
       <c r="G92" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H92" s="29"/>
@@ -3157,7 +3357,7 @@
       <c r="P92" s="29"/>
       <c r="Q92" s="29"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="9"/>
       <c r="B93" s="21" t="s">
         <v>4</v>
@@ -3167,53 +3367,68 @@
       <c r="E93" s="2"/>
       <c r="F93" s="3"/>
       <c r="G93" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="9"/>
       <c r="B94" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C94" s="10"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="43">
+        <f t="shared" ref="D94:D95" si="30">C94*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="2"/>
       <c r="F94" s="3"/>
       <c r="G94" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="9"/>
       <c r="B95" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C95" s="10"/>
-      <c r="D95" s="1"/>
+      <c r="D95" s="43">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="3"/>
       <c r="G95" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="11"/>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="42"/>
+      <c r="D96" s="43">
+        <f t="shared" ref="D96:F96" si="31">SUM(D92:D95)</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="43">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="43">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="13"/>
       <c r="B97" s="23" t="s">
         <v>6</v>
@@ -3223,13 +3438,13 @@
       <c r="E97" s="2"/>
       <c r="F97" s="3"/>
       <c r="G97" s="25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B98" s="21" t="s">
         <v>3</v>
@@ -3239,11 +3454,11 @@
       <c r="E98" s="2"/>
       <c r="F98" s="3"/>
       <c r="G98" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="21" t="s">
         <v>4</v>
@@ -3253,845 +3468,993 @@
       <c r="E99" s="2"/>
       <c r="F99" s="3"/>
       <c r="G99" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C100" s="10"/>
-      <c r="D100" s="1"/>
+      <c r="D100" s="43">
+        <f t="shared" ref="D100:D101" si="32">C100*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="3"/>
       <c r="G100" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="9"/>
       <c r="B101" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="10"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="3"/>
       <c r="G101" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="11"/>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="10"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="43">
+        <f t="shared" ref="D102:F102" si="33">SUM(D98:D101)</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="43">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="43">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="13"/>
+      <c r="B103" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="12"/>
       <c r="D103" s="1"/>
       <c r="E103" s="2"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
+      <c r="G103" s="25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="B104" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="1"/>
       <c r="E104" s="2"/>
       <c r="F104" s="3"/>
       <c r="G104" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="9"/>
       <c r="B105" s="21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="1"/>
       <c r="E105" s="2"/>
       <c r="F105" s="3"/>
       <c r="G105" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="9"/>
       <c r="B106" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" s="10"/>
-      <c r="D106" s="1"/>
+      <c r="D106" s="43">
+        <f t="shared" ref="D106:D107" si="34">C106*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="3"/>
       <c r="G106" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="22" t="s">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="9"/>
+      <c r="B107" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="43">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="11"/>
+      <c r="B108" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="25">
-        <f t="shared" ref="G107:G170" si="6">SUM(D107:F107)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="23" t="s">
+      <c r="C108" s="42"/>
+      <c r="D108" s="43">
+        <f t="shared" ref="D108:F108" si="35">SUM(D104:D107)</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="43">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="43">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="13"/>
+      <c r="B109" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="10"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="1"/>
       <c r="E109" s="2"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
+      <c r="G109" s="25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="B110" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="1"/>
       <c r="E110" s="2"/>
       <c r="F110" s="3"/>
       <c r="G110" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="9"/>
       <c r="B111" s="21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="1"/>
       <c r="E111" s="2"/>
       <c r="F111" s="3"/>
       <c r="G111" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="9"/>
       <c r="B112" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" s="10"/>
-      <c r="D112" s="1"/>
+      <c r="D112" s="43">
+        <f t="shared" ref="D112:D113" si="36">C112*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112" s="3"/>
       <c r="G112" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="22" t="s">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="9"/>
+      <c r="B113" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="43">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="11"/>
+      <c r="B114" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B114" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="B115" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="10"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="43">
+        <f t="shared" ref="D114:F114" si="37">SUM(D110:D113)</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="43">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="43">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="13"/>
+      <c r="B115" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="12"/>
       <c r="D115" s="1"/>
       <c r="E115" s="2"/>
       <c r="F115" s="3"/>
-      <c r="G115" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
+      <c r="G115" s="25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B116" s="21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="1"/>
       <c r="E116" s="2"/>
       <c r="F116" s="3"/>
       <c r="G116" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="9"/>
       <c r="B117" s="21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="1"/>
       <c r="E117" s="2"/>
       <c r="F117" s="3"/>
       <c r="G117" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="B118" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="B119" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="12"/>
-      <c r="D119" s="1"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="9"/>
+      <c r="B118" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="43">
+        <f t="shared" ref="D118:D119" si="38">C118*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="9"/>
+      <c r="B119" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="43">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="3"/>
-      <c r="G119" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
-      <c r="B121" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="10"/>
+      <c r="G119" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="11"/>
+      <c r="B120" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="42"/>
+      <c r="D120" s="43">
+        <f t="shared" ref="D120:F120" si="39">SUM(D116:D119)</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="43">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F120" s="43">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="13"/>
+      <c r="B121" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="12"/>
       <c r="D121" s="1"/>
       <c r="E121" s="2"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
+      <c r="G121" s="25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="B122" s="21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="1"/>
       <c r="E122" s="2"/>
       <c r="F122" s="3"/>
       <c r="G122" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="9"/>
       <c r="B123" s="21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="1"/>
       <c r="E123" s="2"/>
       <c r="F123" s="3"/>
       <c r="G123" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>44</v>
-      </c>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="9"/>
+      <c r="B124" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="43">
+        <f t="shared" ref="D124:D125" si="40">C124*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="9"/>
       <c r="B125" s="21" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C125" s="10"/>
-      <c r="D125" s="1"/>
+      <c r="D125" s="43">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="F125" s="3"/>
       <c r="G125" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="B126" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
-      <c r="B127" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="10"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="11"/>
+      <c r="B126" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="42"/>
+      <c r="D126" s="43">
+        <f t="shared" ref="D126:F126" si="41">SUM(D122:D125)</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="43">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F126" s="43">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="13"/>
+      <c r="B127" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="12"/>
       <c r="D127" s="1"/>
       <c r="E127" s="2"/>
       <c r="F127" s="3"/>
-      <c r="G127" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
+      <c r="G127" s="25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B128" s="21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="1"/>
       <c r="E128" s="2"/>
       <c r="F128" s="3"/>
       <c r="G128" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
-      <c r="B129" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="12"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="9"/>
+      <c r="B129" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="10"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
-      <c r="B130" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" s="12"/>
-      <c r="D130" s="1"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="9"/>
+      <c r="B130" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="43">
+        <f t="shared" ref="D130:D131" si="42">C130*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E130" s="2"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="G130" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="9"/>
       <c r="B131" s="21" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C131" s="10"/>
-      <c r="D131" s="1"/>
+      <c r="D131" s="43">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131" s="3"/>
       <c r="G131" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
-      <c r="B132" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
-      <c r="B133" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" s="10"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="11"/>
+      <c r="B132" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43">
+        <f t="shared" ref="D132:F132" si="43">SUM(D128:D131)</f>
+        <v>0</v>
+      </c>
+      <c r="E132" s="43">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F132" s="43">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="13"/>
+      <c r="B133" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="12"/>
       <c r="D133" s="1"/>
       <c r="E133" s="2"/>
       <c r="F133" s="3"/>
-      <c r="G133" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
+      <c r="G133" s="25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="B134" s="21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="1"/>
       <c r="E134" s="2"/>
       <c r="F134" s="3"/>
       <c r="G134" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="12"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="9"/>
+      <c r="B135" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="10"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="9"/>
       <c r="B136" s="21" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C136" s="10"/>
-      <c r="D136" s="1"/>
+      <c r="D136" s="43">
+        <f t="shared" ref="D136:D137" si="44">C136*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E136" s="2"/>
       <c r="F136" s="3"/>
       <c r="G136" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="9"/>
       <c r="B137" s="21" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C137" s="10"/>
-      <c r="D137" s="1"/>
+      <c r="D137" s="43">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
       <c r="E137" s="2"/>
       <c r="F137" s="3"/>
       <c r="G137" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
-      <c r="B138" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
-      <c r="B139" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C139" s="10"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="11"/>
+      <c r="B138" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43">
+        <f t="shared" ref="D138:F138" si="45">SUM(D134:D137)</f>
+        <v>0</v>
+      </c>
+      <c r="E138" s="43">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="F138" s="43">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G138" s="44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="13"/>
+      <c r="B139" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="12"/>
       <c r="D139" s="1"/>
       <c r="E139" s="2"/>
       <c r="F139" s="3"/>
-      <c r="G139" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" s="12"/>
+      <c r="G139" s="25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="10"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="13"/>
-      <c r="B141" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141" s="12"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="9"/>
+      <c r="B141" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="10"/>
       <c r="D141" s="1"/>
       <c r="E141" s="2"/>
       <c r="F141" s="3"/>
-      <c r="G141" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="G141" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="9"/>
       <c r="B142" s="21" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C142" s="10"/>
-      <c r="D142" s="1"/>
+      <c r="D142" s="43">
+        <f t="shared" ref="D142:D143" si="46">C142*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E142" s="2"/>
       <c r="F142" s="3"/>
       <c r="G142" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="9"/>
       <c r="B143" s="21" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C143" s="10"/>
-      <c r="D143" s="1"/>
+      <c r="D143" s="43">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="E143" s="2"/>
       <c r="F143" s="3"/>
       <c r="G143" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="B144" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
-      <c r="B145" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C145" s="10"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="11"/>
+      <c r="B144" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="42"/>
+      <c r="D144" s="43">
+        <f t="shared" ref="D144:F144" si="47">SUM(D140:D143)</f>
+        <v>0</v>
+      </c>
+      <c r="E144" s="43">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F144" s="43">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="13"/>
+      <c r="B145" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="12"/>
       <c r="D145" s="1"/>
       <c r="E145" s="2"/>
       <c r="F145" s="3"/>
-      <c r="G145" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
-      <c r="B146" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" s="12"/>
+      <c r="G145" s="25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="10"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="9"/>
       <c r="B147" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="1"/>
       <c r="E147" s="2"/>
       <c r="F147" s="3"/>
       <c r="G147" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="9"/>
       <c r="B148" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C148" s="10"/>
-      <c r="D148" s="1"/>
+      <c r="D148" s="43">
+        <f t="shared" ref="D148:D149" si="48">C148*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E148" s="2"/>
       <c r="F148" s="3"/>
       <c r="G148" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="9"/>
       <c r="B149" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C149" s="10"/>
-      <c r="D149" s="1"/>
+      <c r="D149" s="43">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
       <c r="E149" s="2"/>
       <c r="F149" s="3"/>
       <c r="G149" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
-      <c r="B151" s="22" t="s">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="11"/>
+      <c r="B150" s="41" t="s">
         <v>5</v>
+      </c>
+      <c r="C150" s="42"/>
+      <c r="D150" s="43">
+        <f t="shared" ref="D150:F150" si="49">SUM(D146:D149)</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="43">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F150" s="43">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="44">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="13"/>
+      <c r="B151" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="C151" s="12"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="3"/>
       <c r="G151" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
-      <c r="B152" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="12"/>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="10"/>
       <c r="D152" s="1"/>
       <c r="E152" s="2"/>
       <c r="F152" s="3"/>
-      <c r="G152" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="G152" s="24">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="9"/>
       <c r="B153" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="1"/>
       <c r="E153" s="2"/>
       <c r="F153" s="3"/>
       <c r="G153" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="9"/>
       <c r="B154" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C154" s="10"/>
-      <c r="D154" s="1"/>
+      <c r="D154" s="43">
+        <f t="shared" ref="D154:D155" si="50">C154*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E154" s="2"/>
       <c r="F154" s="3"/>
       <c r="G154" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G154:G217" si="51">SUM(D154:F154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="9"/>
       <c r="B155" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C155" s="10"/>
-      <c r="D155" s="1"/>
+      <c r="D155" s="43">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="E155" s="2"/>
       <c r="F155" s="3"/>
       <c r="G155" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
-      <c r="B156" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
-      <c r="B157" s="22" t="s">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="11"/>
+      <c r="B156" s="41" t="s">
         <v>5</v>
+      </c>
+      <c r="C156" s="42"/>
+      <c r="D156" s="43">
+        <f t="shared" ref="D156:F156" si="52">SUM(D152:D155)</f>
+        <v>0</v>
+      </c>
+      <c r="E156" s="43">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="F156" s="43">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="13"/>
+      <c r="B157" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="C157" s="12"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="3"/>
       <c r="G157" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B158" s="21" t="s">
         <v>3</v>
@@ -4101,11 +4464,11 @@
       <c r="E158" s="2"/>
       <c r="F158" s="3"/>
       <c r="G158" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="9"/>
       <c r="B159" s="21" t="s">
         <v>4</v>
@@ -4115,53 +4478,68 @@
       <c r="E159" s="2"/>
       <c r="F159" s="3"/>
       <c r="G159" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="9"/>
       <c r="B160" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C160" s="10"/>
-      <c r="D160" s="1"/>
+      <c r="D160" s="43">
+        <f t="shared" ref="D160:D161" si="53">C160*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E160" s="2"/>
       <c r="F160" s="3"/>
       <c r="G160" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="9"/>
       <c r="B161" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C161" s="10"/>
-      <c r="D161" s="1"/>
+      <c r="D161" s="43">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
       <c r="E161" s="2"/>
       <c r="F161" s="3"/>
       <c r="G161" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="11"/>
-      <c r="B162" s="22" t="s">
+      <c r="B162" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C162" s="12"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C162" s="42"/>
+      <c r="D162" s="43">
+        <f t="shared" ref="D162:F162" si="54">SUM(D158:D161)</f>
+        <v>0</v>
+      </c>
+      <c r="E162" s="43">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="F162" s="43">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="G162" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="13"/>
       <c r="B163" s="23" t="s">
         <v>6</v>
@@ -4171,13 +4549,13 @@
       <c r="E163" s="2"/>
       <c r="F163" s="3"/>
       <c r="G163" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B164" s="21" t="s">
         <v>3</v>
@@ -4187,11 +4565,11 @@
       <c r="E164" s="2"/>
       <c r="F164" s="3"/>
       <c r="G164" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="9"/>
       <c r="B165" s="21" t="s">
         <v>4</v>
@@ -4201,845 +4579,993 @@
       <c r="E165" s="2"/>
       <c r="F165" s="3"/>
       <c r="G165" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="9"/>
       <c r="B166" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C166" s="10"/>
-      <c r="D166" s="1"/>
+      <c r="D166" s="43">
+        <f t="shared" ref="D166:D167" si="55">C166*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="F166" s="3"/>
       <c r="G166" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="9"/>
       <c r="B167" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C167" s="10"/>
-      <c r="D167" s="1"/>
+      <c r="D167" s="43">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="F167" s="3"/>
       <c r="G167" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="11"/>
-      <c r="B168" s="22" t="s">
+      <c r="B168" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C168" s="12"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B169" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" s="10"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="43">
+        <f t="shared" ref="D168:F168" si="56">SUM(D164:D167)</f>
+        <v>0</v>
+      </c>
+      <c r="E168" s="43">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F168" s="43">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" s="13"/>
+      <c r="B169" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="12"/>
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="9"/>
+      <c r="G169" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="B170" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="1"/>
       <c r="E170" s="2"/>
       <c r="F170" s="3"/>
       <c r="G170" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="9"/>
       <c r="B171" s="21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
       <c r="F171" s="3"/>
       <c r="G171" s="24">
-        <f t="shared" ref="G171:G234" si="7">SUM(D171:F171)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="9"/>
       <c r="B172" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C172" s="10"/>
-      <c r="D172" s="1"/>
+      <c r="D172" s="43">
+        <f t="shared" ref="D172:D173" si="57">C172*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E172" s="2"/>
       <c r="F172" s="3"/>
       <c r="G172" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="11"/>
-      <c r="B173" s="22" t="s">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="9"/>
+      <c r="B173" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="43">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="11"/>
+      <c r="B174" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C173" s="12"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
-      <c r="B174" s="23" t="s">
+      <c r="C174" s="42"/>
+      <c r="D174" s="43">
+        <f t="shared" ref="D174:F174" si="58">SUM(D170:D173)</f>
+        <v>0</v>
+      </c>
+      <c r="E174" s="43">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="F174" s="43">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="G174" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" s="13"/>
+      <c r="B175" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C174" s="12"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B175" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="10"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="1"/>
       <c r="E175" s="2"/>
       <c r="F175" s="3"/>
-      <c r="G175" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="9"/>
+      <c r="G175" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="B176" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="1"/>
       <c r="E176" s="2"/>
       <c r="F176" s="3"/>
       <c r="G176" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>
       <c r="B177" s="21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="1"/>
       <c r="E177" s="2"/>
       <c r="F177" s="3"/>
       <c r="G177" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="9"/>
       <c r="B178" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C178" s="10"/>
-      <c r="D178" s="1"/>
+      <c r="D178" s="43">
+        <f t="shared" ref="D178:D179" si="59">C178*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E178" s="2"/>
       <c r="F178" s="3"/>
       <c r="G178" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
-      <c r="B179" s="22" t="s">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" s="9"/>
+      <c r="B179" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="43">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="11"/>
+      <c r="B180" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C179" s="12"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B180" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
-      <c r="B181" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C181" s="10"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="43">
+        <f t="shared" ref="D180:F180" si="60">SUM(D176:D179)</f>
+        <v>0</v>
+      </c>
+      <c r="E180" s="43">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F180" s="43">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="G180" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" s="13"/>
+      <c r="B181" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="12"/>
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
       <c r="F181" s="3"/>
-      <c r="G181" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
+      <c r="G181" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="B182" s="21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
       <c r="F182" s="3"/>
       <c r="G182" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="9"/>
       <c r="B183" s="21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
       <c r="F183" s="3"/>
       <c r="G183" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
-      <c r="B184" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" s="12"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
-      <c r="B185" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="12"/>
-      <c r="D185" s="1"/>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="9"/>
+      <c r="B184" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="10"/>
+      <c r="D184" s="43">
+        <f t="shared" ref="D184:D185" si="61">C184*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" s="9"/>
+      <c r="B185" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" s="10"/>
+      <c r="D185" s="43">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
       <c r="E185" s="2"/>
       <c r="F185" s="3"/>
-      <c r="G185" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B186" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" s="10"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
-      <c r="B187" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C187" s="10"/>
+      <c r="G185" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" s="11"/>
+      <c r="B186" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="42"/>
+      <c r="D186" s="43">
+        <f t="shared" ref="D186:F186" si="62">SUM(D182:D185)</f>
+        <v>0</v>
+      </c>
+      <c r="E186" s="43">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="F186" s="43">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="G186" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" s="13"/>
+      <c r="B187" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="12"/>
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
       <c r="F187" s="3"/>
-      <c r="G187" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
+      <c r="G187" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="B188" s="21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
       <c r="F188" s="3"/>
       <c r="G188" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="9"/>
       <c r="B189" s="21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="1"/>
       <c r="E189" s="2"/>
       <c r="F189" s="3"/>
       <c r="G189" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
-      <c r="B190" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="12"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
-        <v>56</v>
-      </c>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" s="9"/>
+      <c r="B190" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="10"/>
+      <c r="D190" s="43">
+        <f t="shared" ref="D190:D191" si="63">C190*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E190" s="2"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" s="9"/>
       <c r="B191" s="21" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C191" s="10"/>
-      <c r="D191" s="1"/>
+      <c r="D191" s="43">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
       <c r="E191" s="2"/>
       <c r="F191" s="3"/>
       <c r="G191" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
-      <c r="B192" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" s="10"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
-      <c r="B193" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C193" s="10"/>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="11"/>
+      <c r="B192" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="42"/>
+      <c r="D192" s="43">
+        <f t="shared" ref="D192:F192" si="64">SUM(D188:D191)</f>
+        <v>0</v>
+      </c>
+      <c r="E192" s="43">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="F192" s="43">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="G192" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" s="13"/>
+      <c r="B193" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="12"/>
       <c r="D193" s="1"/>
       <c r="E193" s="2"/>
       <c r="F193" s="3"/>
-      <c r="G193" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
+      <c r="G193" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="B194" s="21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="1"/>
       <c r="E194" s="2"/>
       <c r="F194" s="3"/>
       <c r="G194" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="11"/>
-      <c r="B195" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C195" s="12"/>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" s="9"/>
+      <c r="B195" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="10"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="13"/>
-      <c r="B196" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" s="12"/>
-      <c r="D196" s="1"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" s="9"/>
+      <c r="B196" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="10"/>
+      <c r="D196" s="43">
+        <f t="shared" ref="D196:D197" si="65">C196*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E196" s="2"/>
       <c r="F196" s="3"/>
-      <c r="G196" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="G196" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" s="9"/>
       <c r="B197" s="21" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C197" s="10"/>
-      <c r="D197" s="1"/>
+      <c r="D197" s="43">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
       <c r="E197" s="2"/>
       <c r="F197" s="3"/>
       <c r="G197" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
-      <c r="B198" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C198" s="10"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="9"/>
-      <c r="B199" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C199" s="10"/>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" s="11"/>
+      <c r="B198" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="42"/>
+      <c r="D198" s="43">
+        <f t="shared" ref="D198:F198" si="66">SUM(D194:D197)</f>
+        <v>0</v>
+      </c>
+      <c r="E198" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="F198" s="43">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="G198" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" s="13"/>
+      <c r="B199" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="12"/>
       <c r="D199" s="1"/>
       <c r="E199" s="2"/>
       <c r="F199" s="3"/>
-      <c r="G199" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
+      <c r="G199" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="B200" s="21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="1"/>
       <c r="E200" s="2"/>
       <c r="F200" s="3"/>
       <c r="G200" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="11"/>
-      <c r="B201" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C201" s="12"/>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" s="9"/>
+      <c r="B201" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="10"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" s="9"/>
       <c r="B202" s="21" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C202" s="10"/>
-      <c r="D202" s="1"/>
+      <c r="D202" s="43">
+        <f t="shared" ref="D202:D203" si="67">C202*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E202" s="2"/>
       <c r="F202" s="3"/>
       <c r="G202" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="9"/>
       <c r="B203" s="21" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C203" s="10"/>
-      <c r="D203" s="1"/>
+      <c r="D203" s="43">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
       <c r="E203" s="2"/>
       <c r="F203" s="3"/>
       <c r="G203" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
-      <c r="B204" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="9"/>
-      <c r="B205" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C205" s="10"/>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" s="11"/>
+      <c r="B204" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" s="42"/>
+      <c r="D204" s="43">
+        <f t="shared" ref="D204:F204" si="68">SUM(D200:D203)</f>
+        <v>0</v>
+      </c>
+      <c r="E204" s="43">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="F204" s="43">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="G204" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" s="13"/>
+      <c r="B205" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="12"/>
       <c r="D205" s="1"/>
       <c r="E205" s="2"/>
       <c r="F205" s="3"/>
-      <c r="G205" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="11"/>
-      <c r="B206" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C206" s="12"/>
+      <c r="G205" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B206" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="10"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="13"/>
-      <c r="B207" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" s="12"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" s="9"/>
+      <c r="B207" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="10"/>
       <c r="D207" s="1"/>
       <c r="E207" s="2"/>
       <c r="F207" s="3"/>
-      <c r="G207" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="G207" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" s="9"/>
       <c r="B208" s="21" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C208" s="10"/>
-      <c r="D208" s="1"/>
+      <c r="D208" s="43">
+        <f t="shared" ref="D208:D209" si="69">C208*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E208" s="2"/>
       <c r="F208" s="3"/>
       <c r="G208" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="9"/>
       <c r="B209" s="21" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C209" s="10"/>
-      <c r="D209" s="1"/>
+      <c r="D209" s="43">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
       <c r="E209" s="2"/>
       <c r="F209" s="3"/>
       <c r="G209" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="9"/>
-      <c r="B210" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="9"/>
-      <c r="B211" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C211" s="10"/>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" s="11"/>
+      <c r="B210" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="42"/>
+      <c r="D210" s="43">
+        <f t="shared" ref="D210:F210" si="70">SUM(D206:D209)</f>
+        <v>0</v>
+      </c>
+      <c r="E210" s="43">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="F210" s="43">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="G210" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" s="13"/>
+      <c r="B211" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="12"/>
       <c r="D211" s="1"/>
       <c r="E211" s="2"/>
       <c r="F211" s="3"/>
-      <c r="G211" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="11"/>
-      <c r="B212" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" s="12"/>
+      <c r="G211" s="25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B212" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="10"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="24">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" s="9"/>
       <c r="B213" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="1"/>
       <c r="E213" s="2"/>
       <c r="F213" s="3"/>
       <c r="G213" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="9"/>
       <c r="B214" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C214" s="10"/>
-      <c r="D214" s="1"/>
+      <c r="D214" s="43">
+        <f t="shared" ref="D214:D215" si="71">C214*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E214" s="2"/>
       <c r="F214" s="3"/>
       <c r="G214" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="9"/>
       <c r="B215" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C215" s="10"/>
-      <c r="D215" s="1"/>
+      <c r="D215" s="43">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
       <c r="E215" s="2"/>
       <c r="F215" s="3"/>
       <c r="G215" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="9"/>
-      <c r="B216" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C216" s="10"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="11"/>
-      <c r="B217" s="22" t="s">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" s="11"/>
+      <c r="B216" s="41" t="s">
         <v>5</v>
+      </c>
+      <c r="C216" s="42"/>
+      <c r="D216" s="43">
+        <f t="shared" ref="D216:F216" si="72">SUM(D212:D215)</f>
+        <v>0</v>
+      </c>
+      <c r="E216" s="43">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="F216" s="43">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="G216" s="44">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" s="13"/>
+      <c r="B217" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="C217" s="12"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="3"/>
       <c r="G217" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="13"/>
-      <c r="B218" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C218" s="12"/>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B218" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="10"/>
       <c r="D218" s="1"/>
       <c r="E218" s="2"/>
       <c r="F218" s="3"/>
-      <c r="G218" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="G218" s="24">
+        <f t="shared" ref="G218:G281" si="73">SUM(D218:F218)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" s="9"/>
       <c r="B219" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="1"/>
       <c r="E219" s="2"/>
       <c r="F219" s="3"/>
       <c r="G219" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="9"/>
       <c r="B220" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C220" s="10"/>
-      <c r="D220" s="1"/>
+      <c r="D220" s="43">
+        <f t="shared" ref="D220:D221" si="74">C220*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E220" s="2"/>
       <c r="F220" s="3"/>
       <c r="G220" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="9"/>
       <c r="B221" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C221" s="10"/>
-      <c r="D221" s="1"/>
+      <c r="D221" s="43">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="E221" s="2"/>
       <c r="F221" s="3"/>
       <c r="G221" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="9"/>
-      <c r="B222" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C222" s="10"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="11"/>
-      <c r="B223" s="22" t="s">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" s="11"/>
+      <c r="B222" s="41" t="s">
         <v>5</v>
+      </c>
+      <c r="C222" s="42"/>
+      <c r="D222" s="43">
+        <f t="shared" ref="D222:F222" si="75">SUM(D218:D221)</f>
+        <v>0</v>
+      </c>
+      <c r="E222" s="43">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="F222" s="43">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="G222" s="44">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" s="13"/>
+      <c r="B223" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="C223" s="12"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="3"/>
       <c r="G223" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B224" s="21" t="s">
         <v>3</v>
@@ -5049,11 +5575,11 @@
       <c r="E224" s="2"/>
       <c r="F224" s="3"/>
       <c r="G224" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="9"/>
       <c r="B225" s="21" t="s">
         <v>4</v>
@@ -5063,53 +5589,68 @@
       <c r="E225" s="2"/>
       <c r="F225" s="3"/>
       <c r="G225" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="9"/>
       <c r="B226" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C226" s="10"/>
-      <c r="D226" s="1"/>
+      <c r="D226" s="43">
+        <f t="shared" ref="D226:D227" si="76">C226*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E226" s="2"/>
       <c r="F226" s="3"/>
       <c r="G226" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="9"/>
       <c r="B227" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C227" s="10"/>
-      <c r="D227" s="1"/>
+      <c r="D227" s="43">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
       <c r="E227" s="2"/>
       <c r="F227" s="3"/>
       <c r="G227" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="11"/>
-      <c r="B228" s="22" t="s">
+      <c r="B228" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C228" s="12"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C228" s="42"/>
+      <c r="D228" s="43">
+        <f t="shared" ref="D228:F228" si="77">SUM(D224:D227)</f>
+        <v>0</v>
+      </c>
+      <c r="E228" s="43">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="F228" s="43">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="G228" s="44">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="13"/>
       <c r="B229" s="23" t="s">
         <v>6</v>
@@ -5119,13 +5660,13 @@
       <c r="E229" s="2"/>
       <c r="F229" s="3"/>
       <c r="G229" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B230" s="21" t="s">
         <v>3</v>
@@ -5135,11 +5676,11 @@
       <c r="E230" s="2"/>
       <c r="F230" s="3"/>
       <c r="G230" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="9"/>
       <c r="B231" s="21" t="s">
         <v>4</v>
@@ -5149,845 +5690,993 @@
       <c r="E231" s="2"/>
       <c r="F231" s="3"/>
       <c r="G231" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="9"/>
       <c r="B232" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C232" s="10"/>
-      <c r="D232" s="1"/>
+      <c r="D232" s="43">
+        <f t="shared" ref="D232:D233" si="78">C232*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E232" s="2"/>
       <c r="F232" s="3"/>
       <c r="G232" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="9"/>
       <c r="B233" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C233" s="10"/>
-      <c r="D233" s="1"/>
+      <c r="D233" s="43">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
       <c r="E233" s="2"/>
       <c r="F233" s="3"/>
       <c r="G233" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="11"/>
-      <c r="B234" s="22" t="s">
+      <c r="B234" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C234" s="12"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B235" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C235" s="10"/>
+      <c r="C234" s="42"/>
+      <c r="D234" s="43">
+        <f t="shared" ref="D234:F234" si="79">SUM(D230:D233)</f>
+        <v>0</v>
+      </c>
+      <c r="E234" s="43">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="F234" s="43">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="G234" s="44">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" s="13"/>
+      <c r="B235" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" s="12"/>
       <c r="D235" s="1"/>
       <c r="E235" s="2"/>
       <c r="F235" s="3"/>
-      <c r="G235" s="24">
-        <f t="shared" ref="G235:G298" si="8">SUM(D235:F235)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="9"/>
+      <c r="G235" s="25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="B236" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C236" s="10"/>
       <c r="D236" s="1"/>
       <c r="E236" s="2"/>
       <c r="F236" s="3"/>
       <c r="G236" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="9"/>
       <c r="B237" s="21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="1"/>
       <c r="E237" s="2"/>
       <c r="F237" s="3"/>
       <c r="G237" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="9"/>
       <c r="B238" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C238" s="10"/>
-      <c r="D238" s="1"/>
+      <c r="D238" s="43">
+        <f t="shared" ref="D238:D239" si="80">C238*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E238" s="2"/>
       <c r="F238" s="3"/>
       <c r="G238" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="11"/>
-      <c r="B239" s="22" t="s">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" s="9"/>
+      <c r="B239" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" s="10"/>
+      <c r="D239" s="43">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="E239" s="2"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" s="11"/>
+      <c r="B240" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C239" s="12"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="13"/>
-      <c r="B240" s="23" t="s">
+      <c r="C240" s="42"/>
+      <c r="D240" s="43">
+        <f t="shared" ref="D240:F240" si="81">SUM(D236:D239)</f>
+        <v>0</v>
+      </c>
+      <c r="E240" s="43">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="F240" s="43">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="G240" s="44">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241" s="13"/>
+      <c r="B241" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C240" s="12"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B241" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C241" s="10"/>
+      <c r="C241" s="12"/>
       <c r="D241" s="1"/>
       <c r="E241" s="2"/>
       <c r="F241" s="3"/>
-      <c r="G241" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="9"/>
+      <c r="G241" s="25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="B242" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="1"/>
       <c r="E242" s="2"/>
       <c r="F242" s="3"/>
       <c r="G242" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="9"/>
       <c r="B243" s="21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="1"/>
       <c r="E243" s="2"/>
       <c r="F243" s="3"/>
       <c r="G243" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="9"/>
       <c r="B244" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C244" s="10"/>
-      <c r="D244" s="1"/>
+      <c r="D244" s="43">
+        <f t="shared" ref="D244:D245" si="82">C244*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E244" s="2"/>
       <c r="F244" s="3"/>
       <c r="G244" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="11"/>
-      <c r="B245" s="22" t="s">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245" s="9"/>
+      <c r="B245" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" s="10"/>
+      <c r="D245" s="43">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="E245" s="2"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" s="11"/>
+      <c r="B246" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C245" s="12"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B246" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" s="10"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="9"/>
-      <c r="B247" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C247" s="10"/>
+      <c r="C246" s="42"/>
+      <c r="D246" s="43">
+        <f t="shared" ref="D246:F246" si="83">SUM(D242:D245)</f>
+        <v>0</v>
+      </c>
+      <c r="E246" s="43">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="F246" s="43">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="G246" s="44">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" s="13"/>
+      <c r="B247" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" s="12"/>
       <c r="D247" s="1"/>
       <c r="E247" s="2"/>
       <c r="F247" s="3"/>
-      <c r="G247" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="9"/>
+      <c r="G247" s="25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="B248" s="21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="1"/>
       <c r="E248" s="2"/>
       <c r="F248" s="3"/>
       <c r="G248" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="9"/>
       <c r="B249" s="21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="1"/>
       <c r="E249" s="2"/>
       <c r="F249" s="3"/>
       <c r="G249" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
-      <c r="B250" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C250" s="12"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="13"/>
-      <c r="B251" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C251" s="12"/>
-      <c r="D251" s="1"/>
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" s="9"/>
+      <c r="B250" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="10"/>
+      <c r="D250" s="43">
+        <f t="shared" ref="D250:D251" si="84">C250*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E250" s="2"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251" s="9"/>
+      <c r="B251" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C251" s="10"/>
+      <c r="D251" s="43">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
       <c r="E251" s="2"/>
       <c r="F251" s="3"/>
-      <c r="G251" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B252" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C252" s="10"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="9"/>
-      <c r="B253" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C253" s="10"/>
+      <c r="G251" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252" s="11"/>
+      <c r="B252" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" s="42"/>
+      <c r="D252" s="43">
+        <f t="shared" ref="D252:F252" si="85">SUM(D248:D251)</f>
+        <v>0</v>
+      </c>
+      <c r="E252" s="43">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="F252" s="43">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="G252" s="44">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253" s="13"/>
+      <c r="B253" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="12"/>
       <c r="D253" s="1"/>
       <c r="E253" s="2"/>
       <c r="F253" s="3"/>
-      <c r="G253" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="9"/>
+      <c r="G253" s="25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="B254" s="21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="1"/>
       <c r="E254" s="2"/>
       <c r="F254" s="3"/>
       <c r="G254" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="9"/>
       <c r="B255" s="21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="1"/>
       <c r="E255" s="2"/>
       <c r="F255" s="3"/>
       <c r="G255" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="11"/>
-      <c r="B256" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C256" s="12"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-      <c r="G256" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="9" t="s">
-        <v>68</v>
-      </c>
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256" s="9"/>
+      <c r="B256" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="10"/>
+      <c r="D256" s="43">
+        <f t="shared" ref="D256:D257" si="86">C256*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E256" s="2"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" s="9"/>
       <c r="B257" s="21" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C257" s="10"/>
-      <c r="D257" s="1"/>
+      <c r="D257" s="43">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
       <c r="E257" s="2"/>
       <c r="F257" s="3"/>
       <c r="G257" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="9"/>
-      <c r="B258" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C258" s="10"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="3"/>
-      <c r="G258" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="9"/>
-      <c r="B259" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C259" s="10"/>
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" s="11"/>
+      <c r="B258" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" s="42"/>
+      <c r="D258" s="43">
+        <f t="shared" ref="D258:F258" si="87">SUM(D254:D257)</f>
+        <v>0</v>
+      </c>
+      <c r="E258" s="43">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="F258" s="43">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="G258" s="44">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" s="13"/>
+      <c r="B259" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" s="12"/>
       <c r="D259" s="1"/>
       <c r="E259" s="2"/>
       <c r="F259" s="3"/>
-      <c r="G259" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="9"/>
+      <c r="G259" s="25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="B260" s="21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="1"/>
       <c r="E260" s="2"/>
       <c r="F260" s="3"/>
       <c r="G260" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="11"/>
-      <c r="B261" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C261" s="12"/>
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" s="9"/>
+      <c r="B261" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261" s="10"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-      <c r="G261" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="13"/>
-      <c r="B262" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C262" s="12"/>
-      <c r="D262" s="1"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" s="9"/>
+      <c r="B262" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" s="10"/>
+      <c r="D262" s="43">
+        <f t="shared" ref="D262:D263" si="88">C262*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E262" s="2"/>
       <c r="F262" s="3"/>
-      <c r="G262" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="G262" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263" s="9"/>
       <c r="B263" s="21" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C263" s="10"/>
-      <c r="D263" s="1"/>
+      <c r="D263" s="43">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
       <c r="E263" s="2"/>
       <c r="F263" s="3"/>
       <c r="G263" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="9"/>
-      <c r="B264" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C264" s="10"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="9"/>
-      <c r="B265" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C265" s="10"/>
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264" s="11"/>
+      <c r="B264" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" s="42"/>
+      <c r="D264" s="43">
+        <f t="shared" ref="D264:F264" si="89">SUM(D260:D263)</f>
+        <v>0</v>
+      </c>
+      <c r="E264" s="43">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="F264" s="43">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="G264" s="44">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" s="13"/>
+      <c r="B265" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" s="12"/>
       <c r="D265" s="1"/>
       <c r="E265" s="2"/>
       <c r="F265" s="3"/>
-      <c r="G265" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="9"/>
+      <c r="G265" s="25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="B266" s="21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="1"/>
       <c r="E266" s="2"/>
       <c r="F266" s="3"/>
       <c r="G266" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="11"/>
-      <c r="B267" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C267" s="12"/>
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" s="9"/>
+      <c r="B267" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267" s="10"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-      <c r="F267" s="1"/>
-      <c r="G267" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="E267" s="2"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268" s="9"/>
       <c r="B268" s="21" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C268" s="10"/>
-      <c r="D268" s="1"/>
+      <c r="D268" s="43">
+        <f t="shared" ref="D268:D269" si="90">C268*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E268" s="2"/>
       <c r="F268" s="3"/>
       <c r="G268" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="9"/>
       <c r="B269" s="21" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C269" s="10"/>
-      <c r="D269" s="1"/>
+      <c r="D269" s="43">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
       <c r="E269" s="2"/>
       <c r="F269" s="3"/>
       <c r="G269" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="9"/>
-      <c r="B270" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C270" s="10"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="9"/>
-      <c r="B271" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C271" s="10"/>
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270" s="11"/>
+      <c r="B270" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" s="42"/>
+      <c r="D270" s="43">
+        <f t="shared" ref="D270:F270" si="91">SUM(D266:D269)</f>
+        <v>0</v>
+      </c>
+      <c r="E270" s="43">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="F270" s="43">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="G270" s="44">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271" s="13"/>
+      <c r="B271" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271" s="12"/>
       <c r="D271" s="1"/>
       <c r="E271" s="2"/>
       <c r="F271" s="3"/>
-      <c r="G271" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="11"/>
-      <c r="B272" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C272" s="12"/>
+      <c r="G271" s="25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B272" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="10"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="1"/>
-      <c r="F272" s="1"/>
-      <c r="G272" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="13"/>
-      <c r="B273" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C273" s="12"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="3"/>
+      <c r="G272" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273" s="9"/>
+      <c r="B273" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="10"/>
       <c r="D273" s="1"/>
       <c r="E273" s="2"/>
       <c r="F273" s="3"/>
-      <c r="G273" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="G273" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A274" s="9"/>
       <c r="B274" s="21" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C274" s="10"/>
-      <c r="D274" s="1"/>
+      <c r="D274" s="43">
+        <f t="shared" ref="D274:D275" si="92">C274*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E274" s="2"/>
       <c r="F274" s="3"/>
       <c r="G274" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="9"/>
       <c r="B275" s="21" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C275" s="10"/>
-      <c r="D275" s="1"/>
+      <c r="D275" s="43">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
       <c r="E275" s="2"/>
       <c r="F275" s="3"/>
       <c r="G275" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="9"/>
-      <c r="B276" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C276" s="10"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="2"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="9"/>
-      <c r="B277" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C277" s="10"/>
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A276" s="11"/>
+      <c r="B276" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" s="42"/>
+      <c r="D276" s="43">
+        <f t="shared" ref="D276:F276" si="93">SUM(D272:D275)</f>
+        <v>0</v>
+      </c>
+      <c r="E276" s="43">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="F276" s="43">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="G276" s="44">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A277" s="13"/>
+      <c r="B277" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" s="12"/>
       <c r="D277" s="1"/>
       <c r="E277" s="2"/>
       <c r="F277" s="3"/>
-      <c r="G277" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="11"/>
-      <c r="B278" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C278" s="12"/>
+      <c r="G277" s="25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A278" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B278" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="10"/>
       <c r="D278" s="1"/>
-      <c r="E278" s="1"/>
-      <c r="F278" s="1"/>
-      <c r="G278" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="E278" s="2"/>
+      <c r="F278" s="3"/>
+      <c r="G278" s="24">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A279" s="9"/>
       <c r="B279" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C279" s="10"/>
       <c r="D279" s="1"/>
       <c r="E279" s="2"/>
       <c r="F279" s="3"/>
       <c r="G279" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="9"/>
       <c r="B280" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C280" s="10"/>
-      <c r="D280" s="1"/>
+      <c r="D280" s="43">
+        <f t="shared" ref="D280:D281" si="94">C280*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E280" s="2"/>
       <c r="F280" s="3"/>
       <c r="G280" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="9"/>
       <c r="B281" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C281" s="10"/>
-      <c r="D281" s="1"/>
+      <c r="D281" s="43">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
       <c r="E281" s="2"/>
       <c r="F281" s="3"/>
       <c r="G281" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="9"/>
-      <c r="B282" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C282" s="10"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="3"/>
-      <c r="G282" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="11"/>
-      <c r="B283" s="22" t="s">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A282" s="11"/>
+      <c r="B282" s="41" t="s">
         <v>5</v>
+      </c>
+      <c r="C282" s="42"/>
+      <c r="D282" s="43">
+        <f t="shared" ref="D282:F282" si="95">SUM(D278:D281)</f>
+        <v>0</v>
+      </c>
+      <c r="E282" s="43">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="F282" s="43">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="G282" s="44">
+        <f t="shared" ref="G282:G345" si="96">SUM(D282:F282)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A283" s="13"/>
+      <c r="B283" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="C283" s="12"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="3"/>
       <c r="G283" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="13"/>
-      <c r="B284" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C284" s="12"/>
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A284" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B284" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" s="10"/>
       <c r="D284" s="1"/>
       <c r="E284" s="2"/>
       <c r="F284" s="3"/>
-      <c r="G284" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="G284" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A285" s="9"/>
       <c r="B285" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C285" s="10"/>
       <c r="D285" s="1"/>
       <c r="E285" s="2"/>
       <c r="F285" s="3"/>
       <c r="G285" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="9"/>
       <c r="B286" s="21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C286" s="10"/>
-      <c r="D286" s="1"/>
+      <c r="D286" s="43">
+        <f t="shared" ref="D286:D287" si="97">C286*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E286" s="2"/>
       <c r="F286" s="3"/>
       <c r="G286" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="9"/>
       <c r="B287" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C287" s="10"/>
-      <c r="D287" s="1"/>
+      <c r="D287" s="43">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
       <c r="E287" s="2"/>
       <c r="F287" s="3"/>
       <c r="G287" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="9"/>
-      <c r="B288" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C288" s="10"/>
-      <c r="D288" s="1"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="3"/>
-      <c r="G288" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="11"/>
-      <c r="B289" s="22" t="s">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A288" s="11"/>
+      <c r="B288" s="41" t="s">
         <v>5</v>
+      </c>
+      <c r="C288" s="42"/>
+      <c r="D288" s="43">
+        <f t="shared" ref="D288:F288" si="98">SUM(D284:D287)</f>
+        <v>0</v>
+      </c>
+      <c r="E288" s="43">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="F288" s="43">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="G288" s="44">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A289" s="13"/>
+      <c r="B289" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="C289" s="12"/>
       <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
-      <c r="F289" s="1"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="3"/>
       <c r="G289" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B290" s="21" t="s">
         <v>3</v>
@@ -5997,11 +6686,11 @@
       <c r="E290" s="2"/>
       <c r="F290" s="3"/>
       <c r="G290" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="9"/>
       <c r="B291" s="21" t="s">
         <v>4</v>
@@ -6011,53 +6700,68 @@
       <c r="E291" s="2"/>
       <c r="F291" s="3"/>
       <c r="G291" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="9"/>
       <c r="B292" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C292" s="10"/>
-      <c r="D292" s="1"/>
+      <c r="D292" s="43">
+        <f t="shared" ref="D292:D293" si="99">C292*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E292" s="2"/>
       <c r="F292" s="3"/>
       <c r="G292" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="9"/>
       <c r="B293" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C293" s="10"/>
-      <c r="D293" s="1"/>
+      <c r="D293" s="43">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
       <c r="E293" s="2"/>
       <c r="F293" s="3"/>
       <c r="G293" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="11"/>
-      <c r="B294" s="22" t="s">
+      <c r="B294" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C294" s="12"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
-      <c r="G294" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C294" s="42"/>
+      <c r="D294" s="43">
+        <f t="shared" ref="D294:F294" si="100">SUM(D290:D293)</f>
+        <v>0</v>
+      </c>
+      <c r="E294" s="43">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="F294" s="43">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="G294" s="44">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="13"/>
       <c r="B295" s="23" t="s">
         <v>6</v>
@@ -6067,13 +6771,13 @@
       <c r="E295" s="2"/>
       <c r="F295" s="3"/>
       <c r="G295" s="25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B296" s="21" t="s">
         <v>3</v>
@@ -6083,11 +6787,11 @@
       <c r="E296" s="2"/>
       <c r="F296" s="3"/>
       <c r="G296" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="9"/>
       <c r="B297" s="21" t="s">
         <v>4</v>
@@ -6097,832 +6801,1422 @@
       <c r="E297" s="2"/>
       <c r="F297" s="3"/>
       <c r="G297" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="9"/>
       <c r="B298" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C298" s="10"/>
-      <c r="D298" s="1"/>
+      <c r="D298" s="43">
+        <f t="shared" ref="D298:D299" si="101">C298*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E298" s="2"/>
       <c r="F298" s="3"/>
       <c r="G298" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="9"/>
       <c r="B299" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C299" s="10"/>
-      <c r="D299" s="1"/>
+      <c r="D299" s="43">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
       <c r="E299" s="2"/>
       <c r="F299" s="3"/>
       <c r="G299" s="24">
-        <f t="shared" ref="G299:G328" si="9">SUM(D299:F299)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="11"/>
-      <c r="B300" s="22" t="s">
+      <c r="B300" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C300" s="12"/>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
-      <c r="G300" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B301" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C301" s="10"/>
+      <c r="C300" s="42"/>
+      <c r="D300" s="43">
+        <f t="shared" ref="D300:F300" si="102">SUM(D296:D299)</f>
+        <v>0</v>
+      </c>
+      <c r="E300" s="43">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="F300" s="43">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="G300" s="44">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A301" s="13"/>
+      <c r="B301" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301" s="12"/>
       <c r="D301" s="1"/>
       <c r="E301" s="2"/>
       <c r="F301" s="3"/>
-      <c r="G301" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="9"/>
+      <c r="G301" s="25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A302" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="B302" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C302" s="10"/>
       <c r="D302" s="1"/>
       <c r="E302" s="2"/>
       <c r="F302" s="3"/>
       <c r="G302" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="9"/>
       <c r="B303" s="21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C303" s="10"/>
       <c r="D303" s="1"/>
       <c r="E303" s="2"/>
       <c r="F303" s="3"/>
       <c r="G303" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="9"/>
       <c r="B304" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C304" s="10"/>
-      <c r="D304" s="1"/>
+      <c r="D304" s="43">
+        <f t="shared" ref="D304:D305" si="103">C304*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E304" s="2"/>
       <c r="F304" s="3"/>
       <c r="G304" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="11"/>
-      <c r="B305" s="22" t="s">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A305" s="9"/>
+      <c r="B305" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" s="10"/>
+      <c r="D305" s="43">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="E305" s="2"/>
+      <c r="F305" s="3"/>
+      <c r="G305" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A306" s="11"/>
+      <c r="B306" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C305" s="12"/>
-      <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
-      <c r="G305" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="13"/>
-      <c r="B306" s="23" t="s">
+      <c r="C306" s="42"/>
+      <c r="D306" s="43">
+        <f t="shared" ref="D306:F306" si="104">SUM(D302:D305)</f>
+        <v>0</v>
+      </c>
+      <c r="E306" s="43">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="F306" s="43">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="G306" s="44">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A307" s="13"/>
+      <c r="B307" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C306" s="12"/>
-      <c r="D306" s="1"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="3"/>
-      <c r="G306" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B307" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C307" s="10"/>
+      <c r="C307" s="12"/>
       <c r="D307" s="1"/>
       <c r="E307" s="2"/>
       <c r="F307" s="3"/>
-      <c r="G307" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="9"/>
+      <c r="G307" s="25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A308" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="B308" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="1"/>
       <c r="E308" s="2"/>
       <c r="F308" s="3"/>
       <c r="G308" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="9"/>
       <c r="B309" s="21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="1"/>
       <c r="E309" s="2"/>
       <c r="F309" s="3"/>
       <c r="G309" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="9"/>
       <c r="B310" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C310" s="10"/>
-      <c r="D310" s="1"/>
+      <c r="D310" s="43">
+        <f t="shared" ref="D310:D311" si="105">C310*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E310" s="2"/>
       <c r="F310" s="3"/>
       <c r="G310" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="11"/>
-      <c r="B311" s="22" t="s">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A311" s="9"/>
+      <c r="B311" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C311" s="10"/>
+      <c r="D311" s="43">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="E311" s="2"/>
+      <c r="F311" s="3"/>
+      <c r="G311" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A312" s="11"/>
+      <c r="B312" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C311" s="12"/>
-      <c r="D311" s="1"/>
-      <c r="E311" s="1"/>
-      <c r="F311" s="1"/>
-      <c r="G311" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B312" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C312" s="10"/>
-      <c r="D312" s="1"/>
-      <c r="E312" s="2"/>
-      <c r="F312" s="3"/>
-      <c r="G312" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="9"/>
-      <c r="B313" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C313" s="10"/>
+      <c r="C312" s="42"/>
+      <c r="D312" s="43">
+        <f t="shared" ref="D312:F312" si="106">SUM(D308:D311)</f>
+        <v>0</v>
+      </c>
+      <c r="E312" s="43">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="F312" s="43">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="G312" s="44">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A313" s="13"/>
+      <c r="B313" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" s="12"/>
       <c r="D313" s="1"/>
       <c r="E313" s="2"/>
       <c r="F313" s="3"/>
-      <c r="G313" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="9"/>
+      <c r="G313" s="25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A314" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="B314" s="21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C314" s="10"/>
       <c r="D314" s="1"/>
       <c r="E314" s="2"/>
       <c r="F314" s="3"/>
       <c r="G314" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="9"/>
       <c r="B315" s="21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C315" s="10"/>
       <c r="D315" s="1"/>
       <c r="E315" s="2"/>
       <c r="F315" s="3"/>
       <c r="G315" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="11"/>
-      <c r="B316" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C316" s="12"/>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
-      <c r="G316" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="13"/>
-      <c r="B317" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C317" s="12"/>
-      <c r="D317" s="1"/>
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A316" s="9"/>
+      <c r="B316" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C316" s="10"/>
+      <c r="D316" s="43">
+        <f t="shared" ref="D316:D317" si="107">C316*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E316" s="2"/>
+      <c r="F316" s="3"/>
+      <c r="G316" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A317" s="9"/>
+      <c r="B317" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C317" s="10"/>
+      <c r="D317" s="43">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
       <c r="E317" s="2"/>
       <c r="F317" s="3"/>
-      <c r="G317" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B318" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C318" s="10"/>
-      <c r="D318" s="1"/>
-      <c r="E318" s="2"/>
-      <c r="F318" s="3"/>
-      <c r="G318" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="9"/>
-      <c r="B319" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C319" s="10"/>
+      <c r="G317" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A318" s="11"/>
+      <c r="B318" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" s="42"/>
+      <c r="D318" s="43">
+        <f t="shared" ref="D318:F318" si="108">SUM(D314:D317)</f>
+        <v>0</v>
+      </c>
+      <c r="E318" s="43">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="F318" s="43">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="G318" s="44">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A319" s="13"/>
+      <c r="B319" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319" s="12"/>
       <c r="D319" s="1"/>
       <c r="E319" s="2"/>
       <c r="F319" s="3"/>
-      <c r="G319" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="9"/>
+      <c r="G319" s="25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A320" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="B320" s="21" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C320" s="10"/>
       <c r="D320" s="1"/>
       <c r="E320" s="2"/>
       <c r="F320" s="3"/>
       <c r="G320" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="9"/>
       <c r="B321" s="21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="1"/>
       <c r="E321" s="2"/>
       <c r="F321" s="3"/>
       <c r="G321" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="11"/>
-      <c r="B322" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C322" s="12"/>
-      <c r="D322" s="1"/>
-      <c r="E322" s="1"/>
-      <c r="F322" s="1"/>
-      <c r="G322" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="9" t="s">
-        <v>80</v>
-      </c>
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A322" s="9"/>
+      <c r="B322" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C322" s="10"/>
+      <c r="D322" s="43">
+        <f t="shared" ref="D322:D323" si="109">C322*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E322" s="2"/>
+      <c r="F322" s="3"/>
+      <c r="G322" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A323" s="9"/>
       <c r="B323" s="21" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C323" s="10"/>
-      <c r="D323" s="1"/>
+      <c r="D323" s="43">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="E323" s="2"/>
       <c r="F323" s="3"/>
       <c r="G323" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="9"/>
-      <c r="B324" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C324" s="10"/>
-      <c r="D324" s="1"/>
-      <c r="E324" s="2"/>
-      <c r="F324" s="3"/>
-      <c r="G324" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="9"/>
-      <c r="B325" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C325" s="10"/>
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A324" s="11"/>
+      <c r="B324" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" s="42"/>
+      <c r="D324" s="43">
+        <f t="shared" ref="D324:F324" si="110">SUM(D320:D323)</f>
+        <v>0</v>
+      </c>
+      <c r="E324" s="43">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="F324" s="43">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="G324" s="44">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A325" s="13"/>
+      <c r="B325" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C325" s="12"/>
       <c r="D325" s="1"/>
       <c r="E325" s="2"/>
       <c r="F325" s="3"/>
-      <c r="G325" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="9"/>
+      <c r="G325" s="25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A326" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="B326" s="21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C326" s="10"/>
       <c r="D326" s="1"/>
       <c r="E326" s="2"/>
       <c r="F326" s="3"/>
       <c r="G326" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="11"/>
-      <c r="B327" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C327" s="12"/>
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A327" s="9"/>
+      <c r="B327" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="10"/>
       <c r="D327" s="1"/>
-      <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
-      <c r="G327" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="13"/>
-      <c r="B328" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C328" s="12"/>
-      <c r="D328" s="1"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="3"/>
+      <c r="G327" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A328" s="9"/>
+      <c r="B328" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C328" s="10"/>
+      <c r="D328" s="43">
+        <f t="shared" ref="D328:D329" si="111">C328*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E328" s="2"/>
       <c r="F328" s="3"/>
-      <c r="G328" s="25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="G328" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A329" s="9"/>
       <c r="B329" s="21" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C329" s="10"/>
-      <c r="D329" s="1"/>
+      <c r="D329" s="43">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
       <c r="E329" s="2"/>
       <c r="F329" s="3"/>
       <c r="G329" s="24">
-        <f t="shared" ref="G329:G334" si="10">SUM(D329:F329)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="9"/>
-      <c r="B330" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C330" s="10"/>
-      <c r="D330" s="1"/>
-      <c r="E330" s="2"/>
-      <c r="F330" s="3"/>
-      <c r="G330" s="24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="9"/>
-      <c r="B331" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C331" s="10"/>
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A330" s="11"/>
+      <c r="B330" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" s="42"/>
+      <c r="D330" s="43">
+        <f t="shared" ref="D330:F330" si="112">SUM(D326:D329)</f>
+        <v>0</v>
+      </c>
+      <c r="E330" s="43">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="F330" s="43">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="G330" s="44">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A331" s="13"/>
+      <c r="B331" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C331" s="12"/>
       <c r="D331" s="1"/>
       <c r="E331" s="2"/>
       <c r="F331" s="3"/>
-      <c r="G331" s="24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="9"/>
+      <c r="G331" s="25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A332" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="B332" s="21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C332" s="10"/>
       <c r="D332" s="1"/>
       <c r="E332" s="2"/>
       <c r="F332" s="3"/>
       <c r="G332" s="24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="11"/>
-      <c r="B333" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C333" s="12"/>
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A333" s="9"/>
+      <c r="B333" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C333" s="10"/>
       <c r="D333" s="1"/>
-      <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
-      <c r="G333" s="25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="13"/>
-      <c r="B334" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C334" s="12"/>
-      <c r="D334" s="1"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="3"/>
+      <c r="G333" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A334" s="9"/>
+      <c r="B334" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C334" s="10"/>
+      <c r="D334" s="43">
+        <f t="shared" ref="D334:D335" si="113">C334*5/3</f>
+        <v>0</v>
+      </c>
       <c r="E334" s="2"/>
       <c r="F334" s="3"/>
-      <c r="G334" s="25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C335" s="5"/>
-      <c r="D335" s="5"/>
-      <c r="E335" s="5"/>
-      <c r="G335" s="20"/>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C336" s="5"/>
-      <c r="D336" s="5"/>
-      <c r="E336" s="5"/>
-      <c r="G336" s="20"/>
-    </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C337" s="5"/>
-      <c r="D337" s="5"/>
-      <c r="E337" s="5"/>
-      <c r="G337" s="20"/>
-    </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C338" s="5"/>
-      <c r="D338" s="5"/>
-      <c r="E338" s="5"/>
-      <c r="G338" s="20"/>
-    </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C339" s="5"/>
-      <c r="D339" s="5"/>
-      <c r="E339" s="5"/>
-      <c r="G339" s="20"/>
-    </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C340" s="5"/>
-      <c r="D340" s="5"/>
-      <c r="E340" s="5"/>
-      <c r="G340" s="20"/>
-    </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C341" s="5"/>
-      <c r="D341" s="5"/>
-      <c r="E341" s="5"/>
-      <c r="G341" s="20"/>
-    </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C342" s="5"/>
-      <c r="D342" s="5"/>
-      <c r="E342" s="5"/>
-      <c r="G342" s="20"/>
-    </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C343" s="5"/>
-      <c r="D343" s="5"/>
-      <c r="E343" s="5"/>
-      <c r="G343" s="20"/>
-    </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C344" s="5"/>
-      <c r="D344" s="5"/>
-      <c r="E344" s="5"/>
-      <c r="G344" s="20"/>
-    </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C345" s="5"/>
-      <c r="D345" s="5"/>
-      <c r="E345" s="5"/>
-      <c r="G345" s="20"/>
-    </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C346" s="5"/>
-      <c r="D346" s="5"/>
-      <c r="E346" s="5"/>
-      <c r="G346" s="20"/>
-    </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C347" s="5"/>
-      <c r="D347" s="5"/>
-      <c r="E347" s="5"/>
-      <c r="G347" s="20"/>
-    </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C348" s="5"/>
-      <c r="D348" s="5"/>
-      <c r="E348" s="5"/>
-      <c r="G348" s="20"/>
-    </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C349" s="5"/>
-      <c r="D349" s="5"/>
-      <c r="E349" s="5"/>
-      <c r="G349" s="20"/>
-    </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C350" s="5"/>
-      <c r="D350" s="5"/>
-      <c r="E350" s="5"/>
-      <c r="G350" s="20"/>
-    </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C351" s="5"/>
-      <c r="D351" s="5"/>
-      <c r="E351" s="5"/>
-      <c r="G351" s="20"/>
-    </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C352" s="5"/>
-      <c r="D352" s="5"/>
-      <c r="E352" s="5"/>
-      <c r="G352" s="20"/>
-    </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C353" s="5"/>
-      <c r="D353" s="5"/>
-      <c r="E353" s="5"/>
-      <c r="G353" s="20"/>
-    </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C354" s="5"/>
-      <c r="D354" s="5"/>
-      <c r="E354" s="5"/>
-      <c r="G354" s="20"/>
-    </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C355" s="5"/>
-      <c r="D355" s="5"/>
-      <c r="E355" s="5"/>
-      <c r="G355" s="20"/>
-    </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C356" s="5"/>
-      <c r="D356" s="5"/>
-      <c r="E356" s="5"/>
-      <c r="G356" s="20"/>
-    </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C357" s="5"/>
-      <c r="D357" s="5"/>
-      <c r="E357" s="5"/>
-      <c r="G357" s="20"/>
-    </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C358" s="5"/>
-      <c r="D358" s="5"/>
-      <c r="E358" s="5"/>
-      <c r="G358" s="20"/>
-    </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C359" s="5"/>
-      <c r="D359" s="5"/>
-      <c r="E359" s="5"/>
-      <c r="G359" s="20"/>
-    </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C360" s="5"/>
-      <c r="D360" s="5"/>
-      <c r="E360" s="5"/>
-      <c r="G360" s="20"/>
-    </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C361" s="5"/>
-      <c r="D361" s="5"/>
-      <c r="E361" s="5"/>
-      <c r="G361" s="20"/>
-    </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C362" s="5"/>
-      <c r="D362" s="5"/>
-      <c r="E362" s="5"/>
-      <c r="G362" s="20"/>
-    </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C363" s="5"/>
-      <c r="D363" s="5"/>
-      <c r="E363" s="5"/>
-      <c r="G363" s="20"/>
-    </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C364" s="5"/>
-      <c r="D364" s="5"/>
-      <c r="E364" s="5"/>
-      <c r="G364" s="20"/>
-    </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C365" s="5"/>
-      <c r="D365" s="5"/>
-      <c r="E365" s="5"/>
-      <c r="G365" s="20"/>
-    </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C366" s="5"/>
-      <c r="D366" s="5"/>
-      <c r="E366" s="5"/>
-      <c r="G366" s="20"/>
-    </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C367" s="5"/>
-      <c r="D367" s="5"/>
-      <c r="E367" s="5"/>
-      <c r="G367" s="20"/>
-    </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C368" s="5"/>
-      <c r="D368" s="5"/>
-      <c r="E368" s="5"/>
-      <c r="G368" s="20"/>
-    </row>
-    <row r="369" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C369" s="5"/>
-      <c r="D369" s="5"/>
-      <c r="E369" s="5"/>
-      <c r="G369" s="20"/>
-    </row>
-    <row r="370" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C370" s="5"/>
-      <c r="D370" s="5"/>
-      <c r="E370" s="5"/>
-      <c r="G370" s="20"/>
-    </row>
-    <row r="371" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C371" s="5"/>
-      <c r="D371" s="5"/>
-      <c r="E371" s="5"/>
-      <c r="G371" s="20"/>
-    </row>
-    <row r="372" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C372" s="5"/>
-      <c r="D372" s="5"/>
-      <c r="E372" s="5"/>
-      <c r="G372" s="20"/>
-    </row>
-    <row r="373" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C373" s="5"/>
-      <c r="D373" s="5"/>
-      <c r="E373" s="5"/>
-      <c r="G373" s="20"/>
-    </row>
-    <row r="374" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C374" s="5"/>
-      <c r="D374" s="5"/>
-      <c r="E374" s="5"/>
-      <c r="G374" s="20"/>
-    </row>
-    <row r="375" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
-      <c r="G375" s="20"/>
-    </row>
-    <row r="376" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C376" s="5"/>
-      <c r="D376" s="5"/>
-      <c r="E376" s="5"/>
-      <c r="G376" s="20"/>
-    </row>
-    <row r="377" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C377" s="5"/>
-      <c r="D377" s="5"/>
-      <c r="E377" s="5"/>
-      <c r="G377" s="20"/>
-    </row>
-    <row r="378" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C378" s="5"/>
-      <c r="D378" s="5"/>
-      <c r="E378" s="5"/>
-      <c r="G378" s="20"/>
-    </row>
-    <row r="379" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C379" s="5"/>
-      <c r="D379" s="5"/>
-      <c r="E379" s="5"/>
-      <c r="G379" s="20"/>
-    </row>
-    <row r="380" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C380" s="5"/>
-      <c r="D380" s="5"/>
-      <c r="E380" s="5"/>
-      <c r="G380" s="20"/>
-    </row>
-    <row r="381" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C381" s="5"/>
-      <c r="D381" s="5"/>
-      <c r="E381" s="5"/>
-      <c r="G381" s="20"/>
-    </row>
-    <row r="382" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G334" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A335" s="9"/>
+      <c r="B335" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C335" s="10"/>
+      <c r="D335" s="43">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="E335" s="2"/>
+      <c r="F335" s="3"/>
+      <c r="G335" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A336" s="11"/>
+      <c r="B336" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" s="42"/>
+      <c r="D336" s="43">
+        <f t="shared" ref="D336:F336" si="114">SUM(D332:D335)</f>
+        <v>0</v>
+      </c>
+      <c r="E336" s="43">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="F336" s="43">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="G336" s="44">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A337" s="13"/>
+      <c r="B337" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337" s="12"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="3"/>
+      <c r="G337" s="25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A338" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B338" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C338" s="10"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="3"/>
+      <c r="G338" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A339" s="9"/>
+      <c r="B339" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" s="10"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="3"/>
+      <c r="G339" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A340" s="9"/>
+      <c r="B340" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C340" s="10"/>
+      <c r="D340" s="43">
+        <f t="shared" ref="D340:D341" si="115">C340*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E340" s="2"/>
+      <c r="F340" s="3"/>
+      <c r="G340" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A341" s="9"/>
+      <c r="B341" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" s="10"/>
+      <c r="D341" s="43">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="E341" s="2"/>
+      <c r="F341" s="3"/>
+      <c r="G341" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A342" s="11"/>
+      <c r="B342" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" s="42"/>
+      <c r="D342" s="43">
+        <f t="shared" ref="D342:F342" si="116">SUM(D338:D341)</f>
+        <v>0</v>
+      </c>
+      <c r="E342" s="43">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="F342" s="43">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="G342" s="44">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A343" s="13"/>
+      <c r="B343" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343" s="12"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="3"/>
+      <c r="G343" s="25">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A344" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B344" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C344" s="10"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="3"/>
+      <c r="G344" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A345" s="9"/>
+      <c r="B345" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" s="10"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="2"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="24">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A346" s="9"/>
+      <c r="B346" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C346" s="10"/>
+      <c r="D346" s="43">
+        <f t="shared" ref="D346:D347" si="117">C346*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E346" s="2"/>
+      <c r="F346" s="3"/>
+      <c r="G346" s="24">
+        <f t="shared" ref="G346:G381" si="118">SUM(D346:F346)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A347" s="9"/>
+      <c r="B347" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C347" s="10"/>
+      <c r="D347" s="43">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="E347" s="2"/>
+      <c r="F347" s="3"/>
+      <c r="G347" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A348" s="11"/>
+      <c r="B348" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" s="42"/>
+      <c r="D348" s="43">
+        <f t="shared" ref="D348:F348" si="119">SUM(D344:D347)</f>
+        <v>0</v>
+      </c>
+      <c r="E348" s="43">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="F348" s="43">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="G348" s="44">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A349" s="13"/>
+      <c r="B349" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349" s="12"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="2"/>
+      <c r="F349" s="3"/>
+      <c r="G349" s="25">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A350" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B350" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C350" s="10"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="3"/>
+      <c r="G350" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A351" s="9"/>
+      <c r="B351" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="10"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="3"/>
+      <c r="G351" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A352" s="9"/>
+      <c r="B352" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C352" s="10"/>
+      <c r="D352" s="43">
+        <f t="shared" ref="D352:D353" si="120">C352*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E352" s="2"/>
+      <c r="F352" s="3"/>
+      <c r="G352" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A353" s="9"/>
+      <c r="B353" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C353" s="10"/>
+      <c r="D353" s="43">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="E353" s="2"/>
+      <c r="F353" s="3"/>
+      <c r="G353" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A354" s="11"/>
+      <c r="B354" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" s="42"/>
+      <c r="D354" s="43">
+        <f t="shared" ref="D354:F354" si="121">SUM(D350:D353)</f>
+        <v>0</v>
+      </c>
+      <c r="E354" s="43">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="F354" s="43">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="G354" s="44">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A355" s="13"/>
+      <c r="B355" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355" s="12"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="25">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A356" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B356" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C356" s="10"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="3"/>
+      <c r="G356" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A357" s="9"/>
+      <c r="B357" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" s="10"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="3"/>
+      <c r="G357" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A358" s="9"/>
+      <c r="B358" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C358" s="10"/>
+      <c r="D358" s="43">
+        <f t="shared" ref="D358:D359" si="122">C358*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E358" s="2"/>
+      <c r="F358" s="3"/>
+      <c r="G358" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A359" s="9"/>
+      <c r="B359" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C359" s="10"/>
+      <c r="D359" s="43">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="E359" s="2"/>
+      <c r="F359" s="3"/>
+      <c r="G359" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A360" s="11"/>
+      <c r="B360" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" s="42"/>
+      <c r="D360" s="43">
+        <f t="shared" ref="D360:F360" si="123">SUM(D356:D359)</f>
+        <v>0</v>
+      </c>
+      <c r="E360" s="43">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="F360" s="43">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="G360" s="44">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A361" s="13"/>
+      <c r="B361" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361" s="12"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="3"/>
+      <c r="G361" s="25">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A362" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B362" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C362" s="10"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="3"/>
+      <c r="G362" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A363" s="9"/>
+      <c r="B363" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="10"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="2"/>
+      <c r="F363" s="3"/>
+      <c r="G363" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A364" s="9"/>
+      <c r="B364" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C364" s="10"/>
+      <c r="D364" s="43">
+        <f t="shared" ref="D364:D365" si="124">C364*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E364" s="2"/>
+      <c r="F364" s="3"/>
+      <c r="G364" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A365" s="9"/>
+      <c r="B365" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C365" s="10"/>
+      <c r="D365" s="43">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="E365" s="2"/>
+      <c r="F365" s="3"/>
+      <c r="G365" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A366" s="11"/>
+      <c r="B366" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366" s="42"/>
+      <c r="D366" s="43">
+        <f t="shared" ref="D366:F366" si="125">SUM(D362:D365)</f>
+        <v>0</v>
+      </c>
+      <c r="E366" s="43">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="F366" s="43">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="G366" s="44">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A367" s="13"/>
+      <c r="B367" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367" s="12"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="2"/>
+      <c r="F367" s="3"/>
+      <c r="G367" s="25">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A368" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B368" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C368" s="10"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="3"/>
+      <c r="G368" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A369" s="9"/>
+      <c r="B369" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369" s="10"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="2"/>
+      <c r="F369" s="3"/>
+      <c r="G369" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A370" s="9"/>
+      <c r="B370" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C370" s="10"/>
+      <c r="D370" s="43">
+        <f t="shared" ref="D370:D371" si="126">C370*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E370" s="2"/>
+      <c r="F370" s="3"/>
+      <c r="G370" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A371" s="9"/>
+      <c r="B371" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C371" s="10"/>
+      <c r="D371" s="43">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="E371" s="2"/>
+      <c r="F371" s="3"/>
+      <c r="G371" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A372" s="11"/>
+      <c r="B372" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372" s="42"/>
+      <c r="D372" s="43">
+        <f t="shared" ref="D372:F372" si="127">SUM(D368:D371)</f>
+        <v>0</v>
+      </c>
+      <c r="E372" s="43">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="F372" s="43">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="G372" s="44">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A373" s="13"/>
+      <c r="B373" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373" s="12"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="2"/>
+      <c r="F373" s="3"/>
+      <c r="G373" s="25">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A374" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B374" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C374" s="10"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="3"/>
+      <c r="G374" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A375" s="9"/>
+      <c r="B375" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" s="10"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="3"/>
+      <c r="G375" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A376" s="9"/>
+      <c r="B376" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C376" s="10"/>
+      <c r="D376" s="43">
+        <f t="shared" ref="D376:D377" si="128">C376*5/3</f>
+        <v>0</v>
+      </c>
+      <c r="E376" s="2"/>
+      <c r="F376" s="3"/>
+      <c r="G376" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A377" s="9"/>
+      <c r="B377" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C377" s="10"/>
+      <c r="D377" s="43">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="E377" s="2"/>
+      <c r="F377" s="3"/>
+      <c r="G377" s="24">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A378" s="11"/>
+      <c r="B378" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378" s="42"/>
+      <c r="D378" s="43">
+        <f t="shared" ref="D378:F378" si="129">SUM(D374:D377)</f>
+        <v>0</v>
+      </c>
+      <c r="E378" s="43">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="F378" s="43">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="G378" s="44">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A379" s="13"/>
+      <c r="B379" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379" s="12"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="2"/>
+      <c r="F379" s="3"/>
+      <c r="G379" s="25">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A380" s="9"/>
+      <c r="B380" s="21"/>
+      <c r="C380" s="10"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="2"/>
+      <c r="F380" s="3"/>
+      <c r="G380" s="24"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A381" s="9"/>
+      <c r="B381" s="21"/>
+      <c r="C381" s="10"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="2"/>
+      <c r="F381" s="3"/>
+      <c r="G381" s="24"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
       <c r="G382" s="20"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7ybwJWBIbf/JWgFeR1ixkzij9ovFMcEM9lG2NSHWJnQzcZPOr9fwoR6UZ4z83ucAu6v1jSv0RCKfZjhUcLf/RQ==" saltValue="8QWXChXEZqC6n8FBW+Rtnw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eOkSkn+xNH4RlsQIlVCLL8Myel0F6R5Wj9PT7V+/3Q6w6wp73bZG9bi4FNmrCovqV2BbZHJR7KRnauEc2WSllg==" saltValue="UGfjim2XhhNeSArpKf2wcg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange password="C58F" sqref="A1:C334 A383:C1048576" name="Range1"/>
+    <protectedRange password="C58F" sqref="A383:C1048576 A1:C381" name="Range1"/>
   </protectedRanges>
   <mergeCells count="2">
     <mergeCell ref="I2:K2"/>
